--- a/ExcelDriven.xlsx
+++ b/ExcelDriven.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testdata" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Testcases</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Purchase</t>
   </si>
   <si>
-    <t>Add Profil</t>
-  </si>
-  <si>
     <t>Delete Profile</t>
   </si>
   <si>
@@ -75,7 +72,7 @@
     <t>erfe</t>
   </si>
   <si>
-    <t>erf</t>
+    <t>Add Profile</t>
   </si>
 </sst>
 </file>
@@ -437,13 +434,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -451,41 +448,41 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
